--- a/com.corona.go/data/testData.xlsx
+++ b/com.corona.go/data/testData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="3660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="3660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>slno</t>
   </si>
@@ -63,6 +64,57 @@
   </si>
   <si>
     <t>amitha</t>
+  </si>
+  <si>
+    <t>customer Name</t>
+  </si>
+  <si>
+    <t>HDFC 001</t>
+  </si>
+  <si>
+    <t>HDFC 002</t>
+  </si>
+  <si>
+    <t>HDFC 003</t>
+  </si>
+  <si>
+    <t>HDFC 004</t>
+  </si>
+  <si>
+    <t>HDFC 005</t>
+  </si>
+  <si>
+    <t>HDFC 006</t>
+  </si>
+  <si>
+    <t>HDFC 007</t>
+  </si>
+  <si>
+    <t>HDFC 008</t>
+  </si>
+  <si>
+    <t>HDFC 009</t>
+  </si>
+  <si>
+    <t>HDFC 010</t>
+  </si>
+  <si>
+    <t>HDFC 011</t>
+  </si>
+  <si>
+    <t>HDFC 012</t>
+  </si>
+  <si>
+    <t>HDFC 013</t>
+  </si>
+  <si>
+    <t>HDFC 014</t>
+  </si>
+  <si>
+    <t>HDFC 015</t>
+  </si>
+  <si>
+    <t>HDFC 016</t>
   </si>
 </sst>
 </file>
@@ -454,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
@@ -519,4 +571,107 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.corona.go/data/testData.xlsx
+++ b/com.corona.go/data/testData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>slno</t>
   </si>
@@ -115,6 +115,27 @@
   </si>
   <si>
     <t>HDFC 016</t>
+  </si>
+  <si>
+    <t>project Name</t>
+  </si>
+  <si>
+    <t>actitme</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>gmail</t>
+  </si>
+  <si>
+    <t>task Name</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>develop</t>
   </si>
 </sst>
 </file>
@@ -575,93 +596,115 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
